--- a/APF/SD008/SD008_功能測試驗收規格書_APF0002.xlsx
+++ b/APF/SD008/SD008_功能測試驗收規格書_APF0002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="197">
   <si>
     <t>序號</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -479,18 +479,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>顯示功能清單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RA006_APF0502_可顯示功能清單查詢.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登入後導至首頁顯示功能清單(APF_0001MM1_Menu)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>異常系</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -503,14 +491,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>登入後導至首頁顯示功能清單失敗(APF_0001MM1_Menu)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顯示功能清單失敗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C-2.1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -524,50 +504,6 @@
     <t>C-1.3</t>
   </si>
   <si>
-    <r>
-      <t>1.使用者登入後，根據使用者所屬角色權限，顯示功能清單-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-權限設定-角色帳號對應</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.使用者登入後，根據使用者所屬角色權限，顯示功能清單-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-功能清單設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>準備資料：
-帳號：test0001，SID：2511
-屬於角色SuperUser成員，該角色成員可檢視功能清單-APF模組-使用者管理-權限設定-角色帳號對應</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>準備資料：
-帳號：test0001，SID：2511
-屬於角色SuperUser成員，該角色成員可檢視功能清單-APF模組-使用者管理-權限設定-角色帳號對應</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>同上</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -615,486 +551,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.使用者登入後，根據使用者所屬角色權限，顯示功能清單-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-權限設定-角色帳號對應</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，及
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-功能清單設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.功能清單載入時，資料讀取逾時，載入失敗，並寫入Error Log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.功能清單載入時，發生未預期的失敗(功能清單資料錯誤)，並寫入Error Log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C-1.4</t>
   </si>
   <si>
     <t>C-1.5</t>
   </si>
   <si>
-    <r>
-      <t>1.使用者登入後，根據使用者所屬角色權限，顯示功能清單-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-角色設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C-1.6</t>
   </si>
   <si>
-    <r>
-      <t>1.使用者登入後，根據使用者所屬角色權限，顯示功能清單-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-權限設定-角色帳號對應</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，及
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-角色設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C-1.7</t>
-  </si>
-  <si>
-    <r>
-      <t>1.使用者登入後，根據使用者所屬角色權限，顯示功能清單-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-功能清單設定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，及
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-角色設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>準備資料：
-帳號：test0001，SID：2511
-屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Administrator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-功能清單設定，且屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Guest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-角色設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>準備資料：
-帳號：test0001，SID：2511
-屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>SuperUser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-權限設定-角色帳號對應，且屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Administrator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-功能清單設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>準備資料：
-帳號：test0001，SID：2511
-屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>SuperUser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-權限設定-角色帳號對應</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>準備資料：
-帳號：test0001，SID：屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Administrator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-功能清單設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>準備資料：
-帳號：test0001，SID：屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Guest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-角色設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>準備資料：
-帳號：test0001，SID：2511
-屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>SuperUser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-權限設定-角色帳號對應，且屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Guest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-角色設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>準備資料：
-帳號：test0001，SID：2511
-屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>SuperUser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-權限設定-角色帳號對應，且屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Administrator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-功能清單設定，且屬於角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Guest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成員，該角色成員可檢視功能清單-APF模組-使用者管理-角色設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.使用者登入後，根據使用者所屬角色權限，顯示功能清單-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-權限設定-角色帳號對應</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，及
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF模組-使用者管理-功能清單設定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-APF模組-使用者管理-角色設定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1133,6 +599,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1.使用者輸入帳號及預設密碼(由common_parameter參數檔設定)
+2.按下系統登入按鈕完成SSO登入
+3.開啟首頁APF0001MM1，進行密碼變更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>準備資料：
 帳號：test0001，SID：2511
 密碼：1234</t>
@@ -1145,12 +617,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.使用者輸入帳號及預設密碼(由common_parameter參數檔設定)
-2.按下系統登入按鈕完成SSO登入
-3.開啟首頁APF0001MM1，進行密碼變更</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.使用者輸入帳號及自定義密碼
 2.按下系統登入按鈕完成SSO登入
 3.開啟首頁APF0001MM1</t>
@@ -1191,10 +657,6 @@
     <t>C-2.12</t>
   </si>
   <si>
-    <t>停止APF之IIS伺服器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>C-2.13</t>
   </si>
   <si>
@@ -1346,21 +808,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.產生Error Log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>使用者初次登入失敗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使用者非第一次初次登入失敗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.使用者輸入帳號及密碼，但輸入的密碼非預設密碼(由common_parameter參數檔設定)
-2.按下系統登入按鈕完成SSO登入
-3.開啟首頁APF0001MM1，進行密碼變更</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1378,12 +830,131 @@
   </si>
   <si>
     <t>準備資料：
-帳號：test0001，SID：2511</t>
+帳號：test1111
+密碼：1234</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>準備資料：
-帳號：test1111</t>
+帳號：test0011，SID：2511
+狀態為已失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用者輸入帳號及密碼，但輸入的密碼非預設密碼(由common_parameter參數檔設定)
+2.按下系統登入按鈕
+3.顯示提示訊息(01003)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用者輸入帳號及密碼，但輸入的密碼非正確自訂密碼
+2.按下系統登入按鈕
+3.顯示提示訊息(01003)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止SSO之伺服器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>進行密碼提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下密碼提示按鈕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備資料：
+帳號：test0001，SID：2511
+密碼提示：出生年月日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF連線逾時</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面：
+秀出訊息視窗：系統忙碌中(APF訊息提示13001)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止APF之IIS伺服器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>無設定密碼提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用者輸入帳號
+2.按下密碼提示按鈕
+3.系統顯示使用者設定的密碼提示內容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用者輸入帳號及密碼
+2.按下系統登入按鈕
+3.顯示提示訊息(01003)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用者輸入帳號及密碼
+2.按下系統登入按鈕
+3.顯示提示訊息(01003)
+4.紀錄失效人員登入紀錄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用者輸入帳號
+2.按下密碼提示按鈕
+3.顯示提示訊息(01011)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備資料：
+帳號：test0001，SID：2511
+密碼提示：(空白)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.於帳號Textbox輸入中文字。
+2.當Focus移開該Textbox或按下密碼提示按鈕後，顯示提示訊息(APF訊息提示08004)。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.於帳號Textbox輸入特殊符號。
+2.當Focus移開該Textbox或按下密碼提示按鈕後，顯示提示訊息(APF訊息提示08002)。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.帳號欄位沒有輸入任何值。
+2.當Focus移開該Textbox或按下密碼提示按鈕後，顯示提示訊息(APF訊息提示06002)。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備資料：
+帳號：test0002，SID：2511
+密碼：1234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備資料：
+帳號：test003，SID：2511
+密碼：1234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備資料：
+帳號：test0002，SID：2511
+密碼：password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>準備資料：
+帳號：test0003，SID：2511
+密碼：password</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1395,7 +966,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="m/d"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -1522,13 +1093,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -1939,7 +1503,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2143,58 +1707,58 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2530,7 +2094,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="77" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -2538,38 +2102,38 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="62" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B2" s="63" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="79" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="67" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="79"/>
       <c r="B4" s="66" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="67" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -3019,7 +2583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -3072,10 +2636,10 @@
         <v>68</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="25"/>
@@ -3091,18 +2655,18 @@
     <row r="3" spans="1:14">
       <c r="A3" s="24">
         <f ca="1">SUM(C3:M3)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="34">
         <f ca="1">IF(C$2="", "", COUNTIF(INDIRECT(C$2&amp;"!$a:$a"), "v"))</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" s="34">
         <f ca="1">IF(D$2="", "", COUNTIF(INDIRECT(D$2&amp;"!$a:$a"), "v"))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="34" t="str">
         <f t="shared" ref="E3:N3" ca="1" si="0">IF(E$2="", "", COUNTIF(INDIRECT(E$2&amp;"!$a:$a"), "v"))</f>
@@ -7599,13 +7163,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" activeCellId="1" sqref="G21 G22"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7647,7 +7211,7 @@
         <v>83</v>
       </c>
       <c r="I1" s="75" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
@@ -7679,7 +7243,7 @@
       <c r="B4" s="32"/>
       <c r="C4" s="53"/>
       <c r="D4" s="58" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -7688,427 +7252,517 @@
     </row>
     <row r="5" spans="1:9" s="33" customFormat="1" ht="110.25">
       <c r="A5" s="32" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="50" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="H5" s="52"/>
     </row>
-    <row r="6" spans="1:9" s="33" customFormat="1" ht="78.75">
+    <row r="6" spans="1:9" s="33" customFormat="1" ht="110.25">
       <c r="A6" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H6" s="52"/>
     </row>
-    <row r="7" spans="1:9" s="33" customFormat="1" ht="63">
+    <row r="7" spans="1:9" s="33" customFormat="1" ht="110.25">
       <c r="A7" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="50" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="44"/>
+        <v>118</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>194</v>
+      </c>
       <c r="G7" s="51" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H7" s="52"/>
     </row>
-    <row r="8" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:9" s="33" customFormat="1" ht="78.75">
+      <c r="A8" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="B8" s="32"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A9" s="32"/>
+      <c r="C8" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" s="33" customFormat="1" ht="78.75">
+      <c r="A9" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="B9" s="32"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="55"/>
-    </row>
-    <row r="10" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A10" s="32"/>
+      <c r="C9" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" s="33" customFormat="1" ht="78.75">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="B10" s="32"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="56" t="s">
+      <c r="C10" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="52"/>
+    </row>
+    <row r="11" spans="1:9" s="33" customFormat="1" ht="63">
+      <c r="A11" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="61"/>
+    </row>
+    <row r="13" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="55"/>
+    </row>
+    <row r="14" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="57"/>
-    </row>
-    <row r="11" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="59"/>
-    </row>
-    <row r="12" spans="1:9" s="33" customFormat="1" ht="63">
-      <c r="A12" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:9" s="33" customFormat="1" ht="78.75">
-      <c r="A13" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="1:9" s="33" customFormat="1" ht="94.5">
-      <c r="A14" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:9" s="33" customFormat="1" ht="63">
-      <c r="A15" s="32" t="s">
-        <v>112</v>
-      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A15" s="32"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A16" s="32" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="50" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H16" s="52"/>
     </row>
     <row r="17" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A17" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="50" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H17" s="52"/>
     </row>
-    <row r="18" spans="1:8" s="33" customFormat="1" ht="110.25">
+    <row r="18" spans="1:8" s="33" customFormat="1" ht="94.5">
       <c r="A18" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="50" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" s="33" customFormat="1" ht="63">
       <c r="A19" s="32" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="50" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="G19" s="51" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H19" s="52"/>
     </row>
-    <row r="20" spans="1:8" s="33" customFormat="1" ht="31.5">
+    <row r="20" spans="1:8" s="33" customFormat="1" ht="63">
       <c r="A20" s="32" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44" t="s">
-        <v>200</v>
+        <v>127</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>154</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H20" s="52"/>
     </row>
-    <row r="21" spans="1:8" s="33" customFormat="1" ht="31.5">
+    <row r="21" spans="1:8" s="33" customFormat="1" ht="78.75">
       <c r="A21" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>199</v>
+        <v>128</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>155</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" s="33" customFormat="1" ht="110.25">
       <c r="A22" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>196</v>
+        <v>129</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>165</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H22" s="52"/>
     </row>
-    <row r="23" spans="1:8" s="33" customFormat="1" ht="78.75">
+    <row r="23" spans="1:8" s="33" customFormat="1" ht="63">
       <c r="A23" s="32" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>156</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" s="33" customFormat="1" ht="47.25">
       <c r="A24" s="32" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>155</v>
+        <v>136</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>173</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H24" s="52"/>
     </row>
-    <row r="25" spans="1:8" s="33" customFormat="1" ht="47.25">
+    <row r="25" spans="1:8" s="33" customFormat="1" ht="63">
       <c r="A25" s="32" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="46" t="s">
         <v>158</v>
       </c>
+      <c r="D25" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>174</v>
+      </c>
       <c r="G25" s="51" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H25" s="52"/>
+    </row>
+    <row r="26" spans="1:8" s="33" customFormat="1" ht="78.75">
+      <c r="A26" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="52"/>
+    </row>
+    <row r="27" spans="1:8" s="33" customFormat="1" ht="63">
+      <c r="A27" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="52"/>
+    </row>
+    <row r="28" spans="1:8" s="33" customFormat="1" ht="47.25">
+      <c r="A28" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="52"/>
+    </row>
+    <row r="29" spans="1:8" s="33" customFormat="1" ht="47.25">
+      <c r="A29" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65459">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65463">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A65459">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A65463">
       <formula1>"v"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8123,13 +7777,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8171,7 +7825,7 @@
         <v>83</v>
       </c>
       <c r="I1" s="75" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
@@ -8179,7 +7833,7 @@
       <c r="B2" s="32"/>
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
@@ -8205,264 +7859,242 @@
       <c r="B4" s="32"/>
       <c r="C4" s="53"/>
       <c r="D4" s="58" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="1:9" s="33" customFormat="1" ht="94.5">
+    <row r="5" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A5" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="50" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D5" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="52"/>
-    </row>
-    <row r="6" spans="1:9" s="33" customFormat="1" ht="78.75">
-      <c r="A6" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" s="33" customFormat="1" ht="78.75">
-      <c r="A7" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" s="33" customFormat="1" ht="141.75">
-      <c r="A8" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" s="33" customFormat="1" ht="126">
-      <c r="A9" s="32" t="s">
-        <v>113</v>
-      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="57"/>
+    </row>
+    <row r="9" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" s="33" customFormat="1" ht="141.75">
+      <c r="C9" s="53"/>
+      <c r="D9" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="59"/>
+    </row>
+    <row r="10" spans="1:9" s="33" customFormat="1" ht="47.25">
       <c r="A10" s="32" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>132</v>
+        <v>92</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>189</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H10" s="52"/>
     </row>
-    <row r="11" spans="1:9" s="33" customFormat="1" ht="189">
+    <row r="11" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A11" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="1:9" s="33" customFormat="1" ht="78.75">
+      <c r="A12" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="61"/>
-    </row>
-    <row r="13" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A13" s="32"/>
+      <c r="D12" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="52"/>
+    </row>
+    <row r="13" spans="1:9" s="33" customFormat="1" ht="94.5">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="B13" s="32"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="55"/>
-    </row>
-    <row r="14" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A14" s="32"/>
+      <c r="C13" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="52"/>
+    </row>
+    <row r="14" spans="1:9" s="33" customFormat="1" ht="63">
+      <c r="A14" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="B14" s="32"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="57"/>
-    </row>
-    <row r="15" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A15" s="32"/>
+      <c r="C14" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="52"/>
+    </row>
+    <row r="15" spans="1:9" s="33" customFormat="1" ht="47.25">
+      <c r="A15" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="B15" s="32"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="59"/>
-    </row>
-    <row r="16" spans="1:9" s="33" customFormat="1" ht="94.5">
+      <c r="C15" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="52"/>
+    </row>
+    <row r="16" spans="1:9" s="33" customFormat="1" ht="47.25">
       <c r="A16" s="32" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>90</v>
-      </c>
       <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" s="33" customFormat="1" ht="94.5">
-      <c r="A17" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A65469">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A65468">
       <formula1>"v"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65469">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65468">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
